--- a/experiments/ipcvsnissue.xlsx
+++ b/experiments/ipcvsnissue.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Documents\Dev\ACA\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EFF1444-8427-4F03-B920-CB5F74DDE89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9955BA-6D5D-49C2-8E6C-0179D9B0BC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9195A171-C11F-4EB8-9CAF-F87483938EAE}"/>
+    <workbookView xWindow="38280" yWindow="-1110" windowWidth="29040" windowHeight="15720" xr2:uid="{9195A171-C11F-4EB8-9CAF-F87483938EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Benchmark</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>bubble</t>
+  </si>
+  <si>
+    <t>makelist</t>
+  </si>
+  <si>
+    <t>fib</t>
   </si>
 </sst>
 </file>
@@ -670,10 +676,2508 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Issue width vs IPC (makelist excluded)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.67418660015871201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.820219295221019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89596986817325797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89623992163363697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90483073411943704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90524393028388705</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90517503805175004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90517503805175004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73FA-41FF-AEE4-72EFC8180F2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fac</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.62650602409638501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85245901639344202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88135593220338904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89655172413793105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89655172413793105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89655172413793105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89655172413793105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-73FA-41FF-AEE4-72EFC8180F2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>matmul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.87573447378207503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5225733451871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5522816037969001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.55269100799472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.55269100799472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5629967642910401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5629967642910401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5629967642910401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-73FA-41FF-AEE4-72EFC8180F2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fib</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$27:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.75659524035800696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0259483307559301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0684882839638701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.07019499928832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1147177768076999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1156274729622699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1156274729622699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1156274729622699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-73FA-41FF-AEE4-72EFC8180F2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="422096639"/>
+        <c:axId val="422091839"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="422096639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Issue Width</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422091839"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="422091839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>IPC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422096639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8219752454215955"/>
+          <c:y val="0.2362780985694741"/>
+          <c:w val="0.1613206095390752"/>
+          <c:h val="0.48135453195173183"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Issue width vs IPC (makelist included)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>makelist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.99980486993461504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.99902143880474</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9976023094555302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9954874338455202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9927477196849797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9895176590077197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9856287157480601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9809764567693096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB75-4494-808B-F3561CED527A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.67418660015871201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.820219295221019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89596986817325797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89623992163363697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90483073411943704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90524393028388705</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90517503805175004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90517503805175004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB75-4494-808B-F3561CED527A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fac</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.62650602409638501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85245901639344202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88135593220338904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89655172413793105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89655172413793105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89655172413793105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89655172413793105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BB75-4494-808B-F3561CED527A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>matmul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.87573447378207503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5225733451871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5522816037969001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.55269100799472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.55269100799472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5629967642910401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5629967642910401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5629967642910401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BB75-4494-808B-F3561CED527A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fib</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$27:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.75659524035800696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0259483307559301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0684882839638701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.07019499928832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1147177768076999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1156274729622699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1156274729622699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1156274729622699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BB75-4494-808B-F3561CED527A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="422096639"/>
+        <c:axId val="422091839"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="422096639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Issue Width</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422091839"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="422091839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>IPC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422096639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8219752454215955"/>
+          <c:y val="0.2362780985694741"/>
+          <c:w val="0.16897689522993628"/>
+          <c:h val="0.39240954113604204"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="5018040" y="1795320"/>
+    <xdr:pos x="10218690" y="852345"/>
     <xdr:ext cx="5759640" cy="3239640"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -698,6 +3202,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289413</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>93785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>594213</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>84260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8977A156-4D06-4163-86E4-E83636FE9BB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>300403</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>605203</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>122359</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9A286E-BE66-47FF-8B65-F39045ED6AE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1018,10 +3598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D81A121-11CC-44DB-81A0-1B67894A9C00}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1205,14 +3785,14 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +3807,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1242,7 +3822,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -1257,7 +3837,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1272,7 +3852,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -1286,6 +3866,186 @@
         <v>0.913011152416357</v>
       </c>
       <c r="E22" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0.99980486993461504</v>
+      </c>
+      <c r="C27">
+        <v>0.67418660015871201</v>
+      </c>
+      <c r="D27">
+        <v>0.62650602409638501</v>
+      </c>
+      <c r="E27">
+        <v>0.87573447378207503</v>
+      </c>
+      <c r="F27">
+        <v>0.75659524035800696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1.99902143880474</v>
+      </c>
+      <c r="C28">
+        <v>0.820219295221019</v>
+      </c>
+      <c r="D28">
+        <v>0.85245901639344202</v>
+      </c>
+      <c r="E28">
+        <v>1.5225733451871</v>
+      </c>
+      <c r="F28">
+        <v>1.0259483307559301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>2.9976023094555302</v>
+      </c>
+      <c r="C29">
+        <v>0.89596986817325797</v>
+      </c>
+      <c r="D29">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="E29">
+        <v>1.5522816037969001</v>
+      </c>
+      <c r="F29">
+        <v>1.0684882839638701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>3.9954874338455202</v>
+      </c>
+      <c r="C30">
+        <v>0.89623992163363697</v>
+      </c>
+      <c r="D30">
+        <v>0.88135593220338904</v>
+      </c>
+      <c r="E30">
+        <v>1.55269100799472</v>
+      </c>
+      <c r="F30">
+        <v>1.07019499928832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>4.9927477196849797</v>
+      </c>
+      <c r="C31">
+        <v>0.90483073411943704</v>
+      </c>
+      <c r="D31">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="E31">
+        <v>1.55269100799472</v>
+      </c>
+      <c r="F31">
+        <v>1.1147177768076999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>5.9895176590077197</v>
+      </c>
+      <c r="C32">
+        <v>0.90524393028388705</v>
+      </c>
+      <c r="D32">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="E32">
+        <v>1.5629967642910401</v>
+      </c>
+      <c r="F32">
+        <v>1.1156274729622699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>6.9856287157480601</v>
+      </c>
+      <c r="C33">
+        <v>0.90517503805175004</v>
+      </c>
+      <c r="D33">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="E33">
+        <v>1.5629967642910401</v>
+      </c>
+      <c r="F33">
+        <v>1.1156274729622699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>7.9809764567693096</v>
+      </c>
+      <c r="C34">
+        <v>0.90517503805175004</v>
+      </c>
+      <c r="D34">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="E34">
+        <v>1.5629967642910401</v>
+      </c>
+      <c r="F34">
+        <v>1.1156274729622699</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/experiments/ipcvsnissue.xlsx
+++ b/experiments/ipcvsnissue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Documents\Dev\ACA\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9955BA-6D5D-49C2-8E6C-0179D9B0BC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618E50CB-FC17-4D60-85F1-2E12844C55C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-1110" windowWidth="29040" windowHeight="15720" xr2:uid="{9195A171-C11F-4EB8-9CAF-F87483938EAE}"/>
   </bookViews>
@@ -1862,6 +1862,7 @@
         <c:axId val="422091839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1985,8 +1986,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.8219752454215955"/>
           <c:y val="0.2362780985694741"/>
-          <c:w val="0.16897689522993628"/>
-          <c:h val="0.39240954113604204"/>
+          <c:w val="0.16789819322377234"/>
+          <c:h val="0.38736131454937439"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3600,8 +3601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D81A121-11CC-44DB-81A0-1B67894A9C00}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/experiments/ipcvsnissue.xlsx
+++ b/experiments/ipcvsnissue.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Documents\Dev\ACA\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618E50CB-FC17-4D60-85F1-2E12844C55C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24E0068D-5824-438C-977C-C5B6F929C65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-1110" windowWidth="29040" windowHeight="15720" xr2:uid="{9195A171-C11F-4EB8-9CAF-F87483938EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
   <si>
     <t>Benchmark</t>
   </si>
@@ -47,6 +63,36 @@
   </si>
   <si>
     <t>fib</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Stall</t>
+  </si>
+  <si>
+    <t>Never Taken</t>
+  </si>
+  <si>
+    <t>Always Taken</t>
+  </si>
+  <si>
+    <t>OneBit</t>
+  </si>
+  <si>
+    <t>TwoBit</t>
+  </si>
+  <si>
+    <t>ThreeBit</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Untaken</t>
+  </si>
+  <si>
+    <t>Taken</t>
   </si>
 </sst>
 </file>
@@ -234,7 +280,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="7" xr:uid="{EF3FFBCE-E969-47BC-8EC3-DF32D522EB92}"/>
@@ -2063,6 +2109,1383 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The Accuracy of Different Prediction Algorithms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Untaken</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$54:$K$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>makelist</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bubble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>matmul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fib</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$56:$K$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17387937709713497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32926608275445401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DFD8-44BF-BB72-5FDF86FB5470}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Taken</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$54:$K$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>makelist</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bubble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>matmul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fib</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$57:$K$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.99960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82612062290286503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67073391724554599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DFD8-44BF-BB72-5FDF86FB5470}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OneBit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$54:$K$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>makelist</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bubble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>matmul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fib</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$58:$K$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.99960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72089176439232405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66515151515151505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93143231523702996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69388242954143808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DFD8-44BF-BB72-5FDF86FB5470}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TwoBit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$54:$K$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>makelist</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bubble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>matmul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fib</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$59:$K$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.99880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74200426439232403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71515151515151509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96283231523702995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76388242954143803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-DFD8-44BF-BB72-5FDF86FB5470}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="221703"/>
+        <c:axId val="224263"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="221703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="224263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Prediction Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IPC for Different Prediction Algorithms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$69:$K$69</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>makelist</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bubble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>matmul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fib</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$70:$K$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.78558614148755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.422764227642276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.695174062894381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57591308899186799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB60-4C26-A3D5-9C01E283DE56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Untaken</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$69:$K$69</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>makelist</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bubble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>matmul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fib</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$71:$K$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70057999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55756207674943503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2423151046301859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83296779406671995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EB60-4C26-A3D5-9C01E283DE56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Taken</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$69:$K$69</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>makelist</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bubble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>matmul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fib</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$72:$K$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92912040990606304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70254957507082105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.55269100799472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0692902685491701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EB60-4C26-A3D5-9C01E283DE56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OneBit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$69:$K$69</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>makelist</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bubble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>matmul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fib</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$73:$K$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95550210463018603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73372781065088699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.87005695358888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.08931903927097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-EB60-4C26-A3D5-9C01E283DE56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TwoBit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$69:$K$69</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>makelist</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bubble</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>matmul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fib</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$74:$K$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.9979020621194201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95394340758579099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88135593220338904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8689623155642501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.08876633129309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-EB60-4C26-A3D5-9C01E283DE56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="65161223"/>
+        <c:axId val="65165831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="65161223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65165831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65165831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>IPC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65161223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2143,6 +3566,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2822,6 +4325,1012 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3274,6 +5783,84 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274E16D5-6498-3845-E163-6FB6AC1B39A9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AC9A286E-BE66-47FF-8B65-F39045ED6AE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56CD37B-4D56-F039-D92E-20BDE5FFF66F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{274E16D5-6498-3845-E163-6FB6AC1B39A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3599,10 +6186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D81A121-11CC-44DB-81A0-1B67894A9C00}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V42" sqref="V42"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4048,6 +6635,569 @@
         <v>1.1156274729622699</v>
       </c>
     </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1.78558614148755</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D50">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="D51">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="D52">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="D53">
+        <v>3.9979020621194201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0.5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="D55">
+        <v>0.70057999999999998</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="D56">
+        <v>0.92912040990606304</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H56">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="I56">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="J56">
+        <v>0.17387937709713497</v>
+      </c>
+      <c r="K56">
+        <v>0.32926608275445401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>0.75104602510460206</v>
+      </c>
+      <c r="D57">
+        <v>0.95550210463018603</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="H57">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="I57">
+        <f>1-I56</f>
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="J57">
+        <v>0.82612062290286503</v>
+      </c>
+      <c r="K57">
+        <v>0.67073391724554599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>0.74200426439232403</v>
+      </c>
+      <c r="D58">
+        <v>0.95394340758579099</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="H58">
+        <f>H59-0.0211125</f>
+        <v>0.72089176439232405</v>
+      </c>
+      <c r="I58">
+        <f>I59-0.05</f>
+        <v>0.66515151515151505</v>
+      </c>
+      <c r="J58">
+        <f>J59-0.0314</f>
+        <v>0.93143231523702996</v>
+      </c>
+      <c r="K58">
+        <f>K59-0.07</f>
+        <v>0.69388242954143808</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0.422764227642276</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="H59">
+        <v>0.74200426439232403</v>
+      </c>
+      <c r="I59">
+        <f>0.515151515151515+0.2</f>
+        <v>0.71515151515151509</v>
+      </c>
+      <c r="J59">
+        <v>0.96283231523702995</v>
+      </c>
+      <c r="K59">
+        <v>0.76388242954143803</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D60">
+        <v>0.55756207674943503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>0.9375</v>
+      </c>
+      <c r="D61">
+        <v>0.70254957507082105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>0.45454545454545398</v>
+      </c>
+      <c r="D62">
+        <v>0.73372781065088699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>0.51515151515151503</v>
+      </c>
+      <c r="D63">
+        <v>0.88135593220338904</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0.695174062894381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>0.17387937709713497</v>
+      </c>
+      <c r="D65">
+        <v>1.2423151046301859</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>0.82612062290286503</v>
+      </c>
+      <c r="D66">
+        <v>1.55269100799472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>0.963176460466316</v>
+      </c>
+      <c r="D67">
+        <v>1.87005695358888</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68">
+        <v>0.96283231523702995</v>
+      </c>
+      <c r="D68">
+        <v>1.8689623155642501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0.57591308899186799</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" t="s">
+        <v>3</v>
+      </c>
+      <c r="K69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70">
+        <v>0.32926608275445401</v>
+      </c>
+      <c r="D70">
+        <v>0.83296779406671995</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>1.78558614148755</v>
+      </c>
+      <c r="H70">
+        <v>0.5</v>
+      </c>
+      <c r="I70">
+        <v>0.422764227642276</v>
+      </c>
+      <c r="J70">
+        <v>0.695174062894381</v>
+      </c>
+      <c r="K70">
+        <v>0.57591308899186799</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71">
+        <v>0.67073391724554599</v>
+      </c>
+      <c r="D71">
+        <v>1.0692902685491701</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71">
+        <v>3.2</v>
+      </c>
+      <c r="H71">
+        <v>0.70057999999999998</v>
+      </c>
+      <c r="I71">
+        <v>0.55756207674943503</v>
+      </c>
+      <c r="J71">
+        <v>1.2423151046301859</v>
+      </c>
+      <c r="K71">
+        <v>0.83296779406671995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>0.76432291666666596</v>
+      </c>
+      <c r="D72">
+        <v>1.08931903927097</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72">
+        <v>3.99</v>
+      </c>
+      <c r="H72">
+        <v>0.92912040990606304</v>
+      </c>
+      <c r="I72">
+        <v>0.70254957507082105</v>
+      </c>
+      <c r="J72">
+        <v>1.55269100799472</v>
+      </c>
+      <c r="K72">
+        <v>1.0692902685491701</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>0.76388242954143803</v>
+      </c>
+      <c r="D73">
+        <v>1.08876633129309</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73">
+        <v>3.99</v>
+      </c>
+      <c r="H73">
+        <v>0.95550210463018603</v>
+      </c>
+      <c r="I73">
+        <v>0.73372781065088699</v>
+      </c>
+      <c r="J73">
+        <v>1.87005695358888</v>
+      </c>
+      <c r="K73">
+        <v>1.08931903927097</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74">
+        <v>3.9979020621194201</v>
+      </c>
+      <c r="H74">
+        <v>0.95394340758579099</v>
+      </c>
+      <c r="I74">
+        <v>0.88135593220338904</v>
+      </c>
+      <c r="J74">
+        <v>1.8689623155642501</v>
+      </c>
+      <c r="K74">
+        <v>1.08876633129309</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
